--- a/docs/paper_experiment/Accuracy/Accuracy_each_sim_re.xlsx
+++ b/docs/paper_experiment/Accuracy/Accuracy_each_sim_re.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/Accuracy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF21C45-3B77-EF42-A63E-6B58C82ABEFB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367EA642-0B39-6C42-B3A7-7EBE126A0704}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14240" yWindow="-18980" windowWidth="28800" windowHeight="17540" activeTab="8" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
+    <workbookView xWindow="31020" yWindow="-10340" windowWidth="28800" windowHeight="17540" activeTab="8" xr2:uid="{6E59B712-7900-6645-8BC8-9D25546A3FF3}"/>
   </bookViews>
   <sheets>
     <sheet name="2gram" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,6 @@
     <sheet name="Mf" sheetId="10" r:id="rId8"/>
     <sheet name="BM25 vs edit" sheetId="12" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'BM25 vs edit'!$B$24</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'BM25 vs edit'!$B$25</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'BM25 vs edit'!$B$24</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'BM25 vs edit'!$B$25</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'BM25 vs edit'!$C$23:$L$23</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'BM25 vs edit'!$C$24:$L$24</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'BM25 vs edit'!$C$25:$L$25</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'BM25 vs edit'!$C$23:$L$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'BM25 vs edit'!$C$24:$L$24</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'BM25 vs edit'!$C$25:$L$25</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'BM25 vs edit'!$B$24</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'BM25 vs edit'!$B$25</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'BM25 vs edit'!$C$23:$L$23</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'BM25 vs edit'!$C$24:$L$24</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'BM25 vs edit'!$C$25:$L$25</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -15262,7 +15245,7 @@
   <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:L25"/>
+      <selection activeCell="C25" sqref="C25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
